--- a/Approximationen/CC Kosten.xlsx
+++ b/Approximationen/CC Kosten.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{85B1B980-CEDF-4284-A820-D3D7F571495B}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{816F7CE2-8664-4EB2-BA92-EA7BFFCD6E28}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -227,7 +227,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -316,7 +316,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -405,7 +405,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -507,7 +507,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -621,7 +621,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="plus"/>
-            <c:size val="6"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
@@ -742,7 +742,7 @@
           <c:trendline>
             <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="25400" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -753,37 +753,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="37"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -961,7 +931,7 @@
             <c:v>Fit ohne Rückkühlung</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -973,6 +943,28 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D654-4589-A472-053BC2A0BDB7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Daten!$M$18:$M$20</c:f>
@@ -1070,7 +1062,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1080,7 +1072,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1">
+                  <a:rPr lang="en-GB" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1103,7 +1095,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1118,7 +1110,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1135,7 +1127,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1206,7 +1198,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1500" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1214,7 +1206,7 @@
                   <a:t> Investitionskosten [Tsd.</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1222,7 +1214,7 @@
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1500" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1260,7 +1252,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1277,7 +1269,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1295,7 +1287,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1325,10 +1317,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14243885796615974"/>
-          <c:y val="8.7581229370830224E-2"/>
-          <c:w val="0.26436782968530442"/>
-          <c:h val="0.24202775439393573"/>
+          <c:x val="0.13288117771898117"/>
+          <c:y val="7.0684966042891831E-2"/>
+          <c:w val="0.29304102513930741"/>
+          <c:h val="0.24413978374815035"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1348,7 +1340,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1956,7 +1948,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2042,12 +2034,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.69469</cdr:x>
-      <cdr:y>0.46988</cdr:y>
+      <cdr:x>0.69202</cdr:x>
+      <cdr:y>0.46437</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79299</cdr:x>
-      <cdr:y>0.62195</cdr:y>
+      <cdr:x>0.79032</cdr:x>
+      <cdr:y>0.61644</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2061,9 +2053,9 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20488220">
-          <a:off x="6461538" y="2825473"/>
-          <a:ext cx="914400" cy="914400"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20544398">
+          <a:off x="6436721" y="2792340"/>
+          <a:ext cx="914324" cy="914424"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2413,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
